--- a/bh3/550605388487942251_2021-07-23_18-30-07.xlsx
+++ b/bh3/550605388487942251_2021-07-23_18-30-07.xlsx
@@ -1054,7 +1054,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -13738,7 +13738,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14614,7 +14614,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14827,7 +14827,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -15420,7 +15420,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16225,7 +16225,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18575,7 +18575,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -22290,7 +22290,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22855,7 +22855,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -23148,7 +23148,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -23373,7 +23373,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23578,7 +23578,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -24057,7 +24057,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24503,7 +24503,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24820,7 +24820,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -26305,7 +26305,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -26380,7 +26380,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26972,7 +26972,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27493,7 +27493,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -28215,7 +28215,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -28365,7 +28365,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28445,7 +28445,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28525,7 +28525,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -29642,7 +29642,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -30009,7 +30009,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -30147,7 +30147,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30955,7 +30955,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -31035,7 +31035,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -31110,7 +31110,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -31252,7 +31252,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -31620,7 +31620,7 @@
         </is>
       </c>
       <c r="I425" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J425" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -32940,7 +32940,7 @@
         </is>
       </c>
       <c r="I444" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J444" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -33315,7 +33315,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33680,7 +33680,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -34397,7 +34397,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34772,7 +34772,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="I473" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J473" t="inlineStr">
         <is>
@@ -35581,7 +35581,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35806,7 +35806,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35881,7 +35881,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">

--- a/bh3/550605388487942251_2021-07-23_18-30-07.xlsx
+++ b/bh3/550605388487942251_2021-07-23_18-30-07.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5031744304</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-30 23:28:50</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44407.97835648148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>5031600186</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-30 23:11:14</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44407.96613425926</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -693,10 +705,8 @@
           <t>4974777016</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-30 23:09:37</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44407.96501157407</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -772,10 +782,8 @@
           <t>5023575986</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:38:47</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44406.9852662037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:05:50</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44406.50405092593</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>4984003641</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-29 03:19:04</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44406.13824074074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-28 21:15:15</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44405.88559027778</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1044,10 +1046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-28 17:27:13</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44405.72723379629</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1115,10 +1115,8 @@
           <t>5012024607</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-28 17:23:53</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44405.72491898148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1190,10 +1188,8 @@
           <t>5011716636</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-28 16:39:12</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44405.69388888889</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1261,10 +1257,8 @@
           <t>5007851915</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-28 02:38:57</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44405.11038194445</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1336,10 +1330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-27 22:52:34</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44404.9531712963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1403,10 +1395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-27 19:30:23</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44404.8127662037</v>
       </c>
       <c r="I14" t="n">
         <v>5</v>
@@ -1470,10 +1460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-27 18:13:12</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44404.75916666666</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1537,10 +1525,8 @@
           <t>5003758969</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-27 17:15:08</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44404.71884259259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1608,10 +1594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-27 16:33:07</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44404.68966435185</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
@@ -1679,10 +1663,8 @@
           <t>5002071154</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-27 14:56:42</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44404.62270833334</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1758,10 +1740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-27 13:58:29</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44404.5822800926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1825,10 +1805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-27 13:50:32</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44404.57675925926</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
@@ -1896,10 +1874,8 @@
           <t>5002071154</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-27 13:01:24</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44404.54263888889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1976,10 +1952,8 @@
           <t>5000334566</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-27 08:30:02</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44404.35418981482</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2043,10 +2017,8 @@
           <t>4999925395</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-27 05:01:07</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44404.2091087963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2122,10 +2094,8 @@
           <t>4999915790</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-27 05:00:15</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44404.20850694444</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2201,10 +2171,8 @@
           <t>4975468804</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-27 04:56:37</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44404.2059837963</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2280,10 +2248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-27 00:51:55</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44404.03605324074</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2351,10 +2317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-27 00:13:44</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44404.00953703704</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -2423,10 +2387,8 @@
           <t>4999081080</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-27 00:11:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44404.00825231482</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2502,10 +2464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-26 21:43:37</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44403.90528935185</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2577,10 +2537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-26 20:17:45</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44403.84565972222</v>
       </c>
       <c r="I30" t="n">
         <v>6</v>
@@ -2644,10 +2602,8 @@
           <t>4996766079</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-26 19:17:33</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44403.80385416667</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2711,10 +2667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:36:06</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44403.73340277778</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2778,10 +2732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:22:41</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44403.68241898148</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2857,10 +2809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:02:21</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44403.66829861111</v>
       </c>
       <c r="I34" t="n">
         <v>13</v>
@@ -2936,10 +2886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-26 14:12:57</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44403.59232638889</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3011,10 +2959,8 @@
           <t>4994777001</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-26 14:12:12</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44403.59180555555</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3086,10 +3032,8 @@
           <t>4994762647</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-26 14:09:54</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44403.59020833333</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3161,10 +3105,8 @@
           <t>4994522627</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-26 13:30:25</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44403.56278935185</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3240,10 +3182,8 @@
           <t>4993483544</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:00:39</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44403.45878472222</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3319,10 +3259,8 @@
           <t>4993202391</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:11:50</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44403.42488425926</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3386,10 +3324,8 @@
           <t>4993184362</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:08:25</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44403.42251157408</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3453,10 +3389,8 @@
           <t>4992637967</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:05:39</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44403.33725694445</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3532,10 +3466,8 @@
           <t>4992627940</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:04:38</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44403.33655092592</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3611,10 +3543,8 @@
           <t>4988603197</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-26 06:29:46</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44403.2706712963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3678,10 +3608,8 @@
           <t>4988603197</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-26 06:28:23</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44403.26971064815</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3745,10 +3673,8 @@
           <t>4988603197</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-26 02:54:12</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44403.12097222222</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3812,10 +3738,8 @@
           <t>4991934104</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:31:48</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44403.06375</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3887,10 +3811,8 @@
           <t>4988603197</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:13:27</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44402.88434027778</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3954,10 +3876,8 @@
           <t>4988741920</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:11:27</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44402.88295138889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4021,10 +3941,8 @@
           <t>4989390331</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:45:37</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44402.82334490741</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4096,10 +4014,8 @@
           <t>4988741920</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:15:15</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44402.76059027778</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -4175,10 +4091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:59:14</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44402.74946759259</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4254,10 +4168,8 @@
           <t>4988603197</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:57:02</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44402.74793981481</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4322,10 +4234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:43:04</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44402.73824074074</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4401,10 +4311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:43:01</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44402.73820601852</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -4468,10 +4376,8 @@
           <t>4988298042</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:11:14</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44402.71613425926</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4539,10 +4445,8 @@
           <t>4979818203</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:10:16</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44402.71546296297</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4610,10 +4514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-25 16:05:14</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44402.67030092593</v>
       </c>
       <c r="I58" t="n">
         <v>10</v>
@@ -4678,10 +4580,8 @@
           <t>4974234611</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-25 12:13:35</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44402.50943287037</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4753,10 +4653,8 @@
           <t>4986224590</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-25 12:02:29</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44402.50172453704</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4828,10 +4726,8 @@
           <t>4986224590</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-25 11:33:13</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44402.48140046297</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4904,10 +4800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-25 11:03:51</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44402.46100694445</v>
       </c>
       <c r="I62" t="n">
         <v>16</v>
@@ -4975,10 +4869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-25 08:03:06</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44402.33548611111</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5054,10 +4946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-25 07:45:50</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44402.32349537037</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5121,10 +5011,8 @@
           <t>4984935457</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-25 05:42:09</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44402.23760416666</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5196,10 +5084,8 @@
           <t>4984930643</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-25 05:40:17</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44402.23630787037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5271,10 +5157,8 @@
           <t>4984510011</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-25 01:42:14</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44402.07099537037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5350,10 +5234,8 @@
           <t>4984512013</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-25 01:39:00</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44402.06875</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5417,10 +5299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-25 01:38:13</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44402.06820601852</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5484,10 +5364,8 @@
           <t>4984510011</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-25 01:37:26</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44402.06766203704</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5551,10 +5429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-25 00:06:14</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44402.0043287037</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -5622,10 +5498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-25 00:06:05</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44402.00422453704</v>
       </c>
       <c r="I72" t="n">
         <v>6</v>
@@ -5695,10 +5569,8 @@
           <t>4984004525</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-25 00:02:12</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44402.00152777778</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5772,10 +5644,8 @@
           <t>4984003641</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-25 00:01:50</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44402.00127314815</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5847,10 +5717,8 @@
           <t>4977542534</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-24 22:49:13</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44401.95084490741</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5922,10 +5790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-24 22:47:11</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44401.94943287037</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5989,10 +5855,8 @@
           <t>4983187565</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-24 22:13:23</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44401.92596064815</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6060,10 +5924,8 @@
           <t>4979818203</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-24 16:59:33</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44401.70802083334</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6127,10 +5989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-24 16:36:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44401.6920949074</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6206,10 +6066,8 @@
           <t>4979000291</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-24 15:34:28</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44401.64893518519</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6281,10 +6139,8 @@
           <t>4979818203</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-24 13:41:44</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44401.57064814815</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6353,10 +6209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-24 13:40:01</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44401.56945601852</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6424,10 +6278,8 @@
           <t>4979521650</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-24 12:56:32</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44401.53925925926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6495,10 +6347,8 @@
           <t>4979452068</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-24 12:46:44</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44401.5324537037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6566,10 +6416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-24 12:28:09</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44401.51954861111</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6645,10 +6493,8 @@
           <t>4979000291</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-24 11:40:50</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44401.48668981482</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6716,10 +6562,8 @@
           <t>4975468804</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-24 11:24:55</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44401.47563657408</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6795,10 +6639,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-24 11:23:01</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44401.47431712963</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6874,10 +6716,8 @@
           <t>4974720513</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-24 11:03:43</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44401.46091435185</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6937,10 +6777,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-24 11:03:09</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44401.46052083333</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7008,10 +6846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:58:18</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44401.45715277778</v>
       </c>
       <c r="I91" t="n">
         <v>11</v>
@@ -7088,10 +6924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:39:43</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44401.44424768518</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7155,10 +6989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:24:03</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44401.43336805556</v>
       </c>
       <c r="I93" t="n">
         <v>23</v>
@@ -7222,10 +7054,8 @@
           <t>4978444759</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:13:13</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44401.4258449074</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7293,10 +7123,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:53:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44401.41201388889</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7372,10 +7200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:45:35</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44401.40665509259</v>
       </c>
       <c r="I96" t="n">
         <v>7</v>
@@ -7443,10 +7269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:41:31</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44401.40383101852</v>
       </c>
       <c r="I97" t="n">
         <v>7</v>
@@ -7515,10 +7339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:38:41</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44401.40186342593</v>
       </c>
       <c r="I98" t="n">
         <v>9</v>
@@ -7586,10 +7408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:27:09</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44401.39385416666</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7661,10 +7481,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:26:41</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44401.3935300926</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7732,10 +7550,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:26:14</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44401.39321759259</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7803,10 +7619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:53:59</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44401.37082175926</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7874,10 +7688,8 @@
           <t>4977917373</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:32:41</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44401.35603009259</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7949,10 +7761,8 @@
           <t>4977920454</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:20:00</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44401.34722222222</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8024,10 +7834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:19:31</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44401.34688657407</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8091,10 +7899,8 @@
           <t>4977917373</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:19:10</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44401.34664351852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8166,10 +7972,8 @@
           <t>4977861744</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:03:47</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44401.33596064815</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8241,10 +8045,8 @@
           <t>4977731261</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-24 07:14:25</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44401.30167824074</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8312,10 +8114,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:45:21</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44401.28149305555</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8383,10 +8183,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:41:00</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44401.27847222222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8454,10 +8252,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:39:30</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44401.27743055556</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8525,10 +8321,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:39:08</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44401.27717592593</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8596,10 +8390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:15:50</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44401.26099537037</v>
       </c>
       <c r="I113" t="n">
         <v>16</v>
@@ -8663,10 +8455,8 @@
           <t>4977621876</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:03:38</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44401.25252314815</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8735,10 +8525,8 @@
           <t>4977542534</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-24 04:35:06</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44401.19104166667</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8810,10 +8598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-24 04:18:18</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44401.179375</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8877,10 +8663,8 @@
           <t>4977378655</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-24 04:16:59</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44401.17846064815</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -8952,10 +8736,8 @@
           <t>4977378655</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-24 04:15:36</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44401.1775</v>
       </c>
       <c r="I118" t="n">
         <v>4</v>
@@ -9027,10 +8809,8 @@
           <t>4977500644</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-24 03:55:19</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44401.16341435185</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9106,10 +8886,8 @@
           <t>4977378655</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-24 02:45:09</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44401.1146875</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9181,10 +8959,8 @@
           <t>4975802572</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-24 02:42:38</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44401.11293981481</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9256,10 +9032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-24 02:03:47</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44401.08596064815</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9335,10 +9109,8 @@
           <t>4977268029</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-24 02:03:29</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44401.08575231482</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9410,10 +9182,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-24 01:46:18</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44401.07381944444</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9481,10 +9251,8 @@
           <t>4977020711</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:58:07</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44401.04035879629</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9548,10 +9316,8 @@
           <t>4975802572</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:42:09</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44401.02927083334</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9632,10 +9398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:35:15</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44401.02447916667</v>
       </c>
       <c r="I127" t="n">
         <v>12</v>
@@ -9707,10 +9471,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:43:51</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44400.98878472222</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9770,10 +9532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:24:40</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44400.97546296296</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9849,10 +9609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:19:38</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44400.9719675926</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9924,10 +9682,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:18:15</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44400.97100694444</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10008,10 +9764,8 @@
           <t>4976123066</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:16:45</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44400.96996527778</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10083,10 +9837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:16:05</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44400.96950231482</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10163,10 +9915,8 @@
           <t>4976318052</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:14:03</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44400.96809027778</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10238,10 +9988,8 @@
           <t>4976204729</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:00:40</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44400.9587962963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10309,10 +10057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:53:54</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44400.95409722222</v>
       </c>
       <c r="I136" t="n">
         <v>5</v>
@@ -10376,10 +10122,8 @@
           <t>4976142597</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:53:20</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44400.9537037037</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -10443,10 +10187,8 @@
           <t>4976123066</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:50:04</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44400.95143518518</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10514,10 +10256,8 @@
           <t>4974350918</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:42:42</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44400.94631944445</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10581,10 +10321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:41:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44400.94549768518</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10656,10 +10394,8 @@
           <t>4975966350</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:30:47</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44400.93804398148</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10727,10 +10463,8 @@
           <t>4975960662</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:30:16</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44400.93768518518</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10798,10 +10532,8 @@
           <t>4975468804</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:29:39</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44400.93725694445</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10869,10 +10601,8 @@
           <t>4974777016</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:29:16</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44400.93699074074</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10940,10 +10670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:28:20</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44400.93634259259</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11007,10 +10735,8 @@
           <t>4975938495</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:28:04</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44400.93615740741</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11078,10 +10804,8 @@
           <t>4975937321</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:27:40</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44400.93587962963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11153,10 +10877,8 @@
           <t>4975933812</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:27:31</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44400.93577546296</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11224,10 +10946,8 @@
           <t>4975584258</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:25:57</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44400.9346875</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11295,10 +11015,8 @@
           <t>4975802572</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:22:10</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44400.93206018519</v>
       </c>
       <c r="I150" t="n">
         <v>8</v>
@@ -11370,10 +11088,8 @@
           <t>4975832292</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:18:37</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44400.92959490741</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11449,10 +11165,8 @@
           <t>4975840370</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:14:55</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44400.92702546297</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11516,10 +11230,8 @@
           <t>4975832292</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:14:33</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44400.92677083334</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11584,10 +11296,8 @@
           <t>4975826783</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:13:41</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44400.92616898148</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11651,10 +11361,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:13:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44400.9257175926</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11722,10 +11430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:11:25</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44400.92459490741</v>
       </c>
       <c r="I156" t="n">
         <v>13</v>
@@ -11790,10 +11496,8 @@
           <t>4975802572</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:10:32</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44400.92398148148</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -11857,10 +11561,8 @@
           <t>4974720513</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:07:35</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44400.92193287037</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11932,10 +11634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:05:25</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44400.92042824074</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12003,10 +11703,8 @@
           <t>4975669511</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:02:09</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44400.91815972222</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12078,10 +11776,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:01:34</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44400.91775462963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12157,10 +11853,8 @@
           <t>4975722201</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:00:51</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44400.91725694444</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12224,10 +11918,8 @@
           <t>4975669511</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:55:17</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44400.91339120371</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12303,10 +11995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:51:00</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44400.91041666667</v>
       </c>
       <c r="I164" t="n">
         <v>6</v>
@@ -12378,10 +12068,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:48:04</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44400.90837962963</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12449,10 +12137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:46:50</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44400.90752314815</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -12528,10 +12214,8 @@
           <t>4974284403</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:46:06</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44400.90701388889</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12599,10 +12283,8 @@
           <t>4975584258</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:44:46</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44400.90608796296</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12678,10 +12360,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:43:21</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44400.90510416667</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12757,10 +12437,8 @@
           <t>4975565869</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:41:12</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44400.90361111111</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12824,10 +12502,8 @@
           <t>4975490814</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:37:35</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44400.90109953703</v>
       </c>
       <c r="I171" t="n">
         <v>5</v>
@@ -12899,10 +12575,8 @@
           <t>4975527698</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:36:49</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44400.90056712963</v>
       </c>
       <c r="I172" t="n">
         <v>5</v>
@@ -12974,10 +12648,8 @@
           <t>4975498445</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:33:16</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44400.89810185185</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13053,10 +12725,8 @@
           <t>4975496246</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:32:25</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44400.89751157408</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13132,10 +12802,8 @@
           <t>4975490814</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:31:33</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44400.89690972222</v>
       </c>
       <c r="I175" t="n">
         <v>8</v>
@@ -13203,10 +12871,8 @@
           <t>4974675964</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:31:07</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44400.8966087963</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13282,10 +12948,8 @@
           <t>4975051545</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:30:11</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44400.89596064815</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13361,10 +13025,8 @@
           <t>4975468804</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:29:36</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44400.89555555556</v>
       </c>
       <c r="I178" t="n">
         <v>6</v>
@@ -13432,10 +13094,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:29:10</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44400.89525462963</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13499,10 +13159,8 @@
           <t>4974675964</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:28:56</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44400.89509259259</v>
       </c>
       <c r="I180" t="n">
         <v>4</v>
@@ -13578,10 +13236,8 @@
           <t>4975051545</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:26:04</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44400.89310185185</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13657,10 +13313,8 @@
           <t>4975439316</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:25:24</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44400.89263888889</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13728,10 +13382,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:24:07</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44400.89174768519</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13799,10 +13451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:22:32</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44400.89064814815</v>
       </c>
       <c r="I184" t="n">
         <v>101</v>
@@ -13874,10 +13524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:22:28</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44400.89060185185</v>
       </c>
       <c r="I185" t="n">
         <v>7</v>
@@ -13945,10 +13593,8 @@
           <t>4974777016</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:21:28</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44400.88990740741</v>
       </c>
       <c r="I186" t="n">
         <v>5</v>
@@ -14016,10 +13662,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:20:38</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44400.88932870371</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14091,10 +13735,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:13:44</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44400.88453703704</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14170,10 +13812,8 @@
           <t>4975316992</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:08:48</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44400.88111111111</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14245,10 +13885,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:07:51</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44400.88045138889</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14316,10 +13954,8 @@
           <t>4975262076</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:00:58</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44400.87567129629</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14391,10 +14027,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:58:43</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44400.8741087963</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -14458,10 +14092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:57:24</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44400.87319444444</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14529,10 +14161,8 @@
           <t>4974777016</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:55:40</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44400.87199074074</v>
       </c>
       <c r="I194" t="n">
         <v>4</v>
@@ -14604,10 +14234,8 @@
           <t>4974228819</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:51:48</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44400.86930555556</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14675,10 +14303,8 @@
           <t>4975051545</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:51:10</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44400.86886574074</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14754,10 +14380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:50:54</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44400.86868055556</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14817,10 +14441,8 @@
           <t>4975145483</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:44:50</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44400.86446759259</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14896,10 +14518,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:43:28</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44400.86351851852</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14976,10 +14596,8 @@
           <t>4975114888</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:42:12</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44400.86263888889</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15051,10 +14669,8 @@
           <t>4975112818</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:41:22</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44400.86206018519</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15118,10 +14734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:40:31</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44400.86146990741</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15193,10 +14807,8 @@
           <t>4975102741</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:39:53</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44400.86103009259</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15264,10 +14876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:34:39</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44400.85739583334</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15331,10 +14941,8 @@
           <t>4975051545</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:32:37</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44400.8559837963</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15410,10 +15018,8 @@
           <t>4975026403</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:28:44</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44400.85328703704</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15489,10 +15095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:27:25</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44400.85237268519</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15560,10 +15164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:27:17</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44400.85228009259</v>
       </c>
       <c r="I208" t="n">
         <v>72</v>
@@ -15635,10 +15237,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:24:02</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44400.85002314814</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15706,10 +15306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:23:56</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44400.84995370371</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15785,10 +15383,8 @@
           <t>4974860297</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:21:44</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44400.84842592593</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15856,10 +15452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:21:12</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44400.84805555556</v>
       </c>
       <c r="I212" t="n">
         <v>6</v>
@@ -15923,10 +15517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:19:54</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44400.84715277778</v>
       </c>
       <c r="I213" t="n">
         <v>7</v>
@@ -15998,10 +15590,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:18:54</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44400.84645833333</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16069,10 +15659,8 @@
           <t>4974777016</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:17:58</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44400.84581018519</v>
       </c>
       <c r="I215" t="n">
         <v>2</v>
@@ -16140,10 +15728,8 @@
           <t>4974950725</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:17:44</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44400.84564814815</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16215,10 +15801,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:15:50</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44400.8443287037</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16294,10 +15878,8 @@
           <t>4974675964</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:15:26</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44400.84405092592</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16365,10 +15947,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:15:23</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44400.8440162037</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16444,10 +16024,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:15:12</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44400.84388888889</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -16515,10 +16093,8 @@
           <t>4974730521</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:14:23</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44400.84332175926</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16590,10 +16166,8 @@
           <t>4974762157</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:13:53</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44400.84297453704</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16665,10 +16239,8 @@
           <t>4974912957</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:13:30</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44400.84270833333</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16744,10 +16316,8 @@
           <t>4974892448</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:10:38</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44400.84071759259</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16815,10 +16385,8 @@
           <t>4974886891</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:10:07</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44400.8403587963</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16886,10 +16454,8 @@
           <t>4974895354</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:10:04</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44400.84032407407</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16957,10 +16523,8 @@
           <t>4974878231</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:09:06</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44400.83965277778</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17037,10 +16601,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:09:02</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44400.83960648148</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17112,10 +16674,8 @@
           <t>4974868610</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:07:15</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44400.83836805556</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17192,10 +16752,8 @@
           <t>4974730521</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:06:12</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44400.83763888889</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17263,10 +16821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:05:59</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44400.83748842592</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17342,10 +16898,8 @@
           <t>4974860297</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:05:41</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44400.83728009259</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17409,10 +16963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:03:57</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44400.83607638889</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17488,10 +17040,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:03:21</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44400.83565972222</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17559,10 +17109,8 @@
           <t>4974730521</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:02:23</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44400.83498842592</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17634,10 +17182,8 @@
           <t>4974740946</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:02:04</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44400.83476851852</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17705,10 +17251,8 @@
           <t>4974783467</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:01:19</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44400.83424768518</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17777,10 +17321,8 @@
           <t>4974783467</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:58:21</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44400.8321875</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17846,10 +17388,8 @@
           <t>4974730521</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:57:05</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44400.83130787037</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17917,10 +17457,8 @@
           <t>4974783467</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:56:06</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44400.830625</v>
       </c>
       <c r="I240" t="n">
         <v>12</v>
@@ -17989,10 +17527,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:55:42</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44400.83034722223</v>
       </c>
       <c r="I241" t="n">
         <v>28</v>
@@ -18056,10 +17592,8 @@
           <t>4974777016</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:55:33</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44400.83024305556</v>
       </c>
       <c r="I242" t="n">
         <v>15</v>
@@ -18123,10 +17657,8 @@
           <t>4974740946</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:53:50</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44400.82905092592</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18194,10 +17726,8 @@
           <t>4974515887</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:53:48</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44400.82902777778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18265,10 +17795,8 @@
           <t>4974770358</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:53:46</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44400.82900462963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18344,10 +17872,8 @@
           <t>4974762157</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:53:27</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44400.82878472222</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18415,10 +17941,8 @@
           <t>4974766272</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:53:25</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44400.82876157408</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18494,10 +18018,8 @@
           <t>4974515887</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:52:52</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44400.82837962963</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18565,10 +18087,8 @@
           <t>4974756876</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:52:25</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44400.82806712963</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18644,10 +18164,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:51:32</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44400.82745370371</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18715,10 +18233,8 @@
           <t>4974675964</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:51:11</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44400.82721064815</v>
       </c>
       <c r="I251" t="n">
         <v>6</v>
@@ -18794,10 +18310,8 @@
           <t>4974720513</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:50:45</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44400.82690972222</v>
       </c>
       <c r="I252" t="n">
         <v>3</v>
@@ -18873,10 +18387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:50:39</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44400.82684027778</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18947,10 +18459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:50:35</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44400.82679398148</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19018,10 +18528,8 @@
           <t>4974740946</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:50:06</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44400.82645833334</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19085,10 +18593,8 @@
           <t>4974730521</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:48:20</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44400.82523148148</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -19160,10 +18666,8 @@
           <t>4974303504</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:47:53</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44400.82491898148</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19239,10 +18743,8 @@
           <t>4974675964</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:47:47</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44400.82484953704</v>
       </c>
       <c r="I258" t="n">
         <v>11</v>
@@ -19318,10 +18820,8 @@
           <t>4974720513</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:47:32</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44400.82467592593</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19393,10 +18893,8 @@
           <t>4974707052</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:46:19</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44400.82383101852</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19468,10 +18966,8 @@
           <t>4974703543</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:45:17</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44400.82311342593</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19547,10 +19043,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:44:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44400.82239583333</v>
       </c>
       <c r="I262" t="n">
         <v>2</v>
@@ -19622,10 +19116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:44:05</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44400.82228009259</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19689,10 +19181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:43:32</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44400.82189814815</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19757,10 +19247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:43:16</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44400.82171296296</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19836,10 +19324,8 @@
           <t>4974681645</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:42:27</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44400.82114583333</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19911,10 +19397,8 @@
           <t>4974681600</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:42:26</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44400.82113425926</v>
       </c>
       <c r="I267" t="n">
         <v>7</v>
@@ -19982,10 +19466,8 @@
           <t>4974645545</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:42:25</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44400.82112268519</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20053,10 +19535,8 @@
           <t>4974675964</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:41:58</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44400.82081018519</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20116,10 +19596,8 @@
           <t>4974645545</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:41:34</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44400.82053240741</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -20194,10 +19672,8 @@
           <t>4974417640</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:41:25</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44400.82042824074</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20268,10 +19744,8 @@
           <t>4974417640</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:41:15</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44400.8203125</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20342,10 +19816,8 @@
           <t>4974645545</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:41:07</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44400.82021990741</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20416,10 +19888,8 @@
           <t>4974486556</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:41:01</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44400.82015046296</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20487,10 +19957,8 @@
           <t>4974663133</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:40:44</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44400.81995370371</v>
       </c>
       <c r="I275" t="n">
         <v>3</v>
@@ -20562,10 +20030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:40:00</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44400.81944444445</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20633,10 +20099,8 @@
           <t>4974670027</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:39:59</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44400.81943287037</v>
       </c>
       <c r="I277" t="n">
         <v>4</v>
@@ -20704,10 +20168,8 @@
           <t>4974659755</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:39:52</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44400.81935185185</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20779,10 +20241,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:39:42</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44400.81923611111</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20854,10 +20314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:38:17</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44400.81825231481</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20925,10 +20383,8 @@
           <t>4974647501</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:38:17</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44400.81825231481</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20996,10 +20452,8 @@
           <t>4974647457</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:38:16</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44400.81824074074</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21075,10 +20529,8 @@
           <t>4974650531</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:38:15</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44400.81822916667</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21150,10 +20602,8 @@
           <t>4974644180</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:37:52</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44400.81796296296</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21229,10 +20679,8 @@
           <t>4974515887</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:37:31</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44400.81771990741</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21296,10 +20744,8 @@
           <t>4974645545</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:37:27</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44400.81767361111</v>
       </c>
       <c r="I286" t="n">
         <v>4</v>
@@ -21371,10 +20817,8 @@
           <t>4974642801</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:37:22</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44400.81761574074</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21450,10 +20894,8 @@
           <t>4974633092</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:36:24</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44400.81694444444</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21517,10 +20959,8 @@
           <t>4974629562</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:36:12</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44400.81680555556</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21596,10 +21036,8 @@
           <t>4974516418</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:35:17</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44400.81616898148</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21675,10 +21113,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:34:46</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44400.81581018519</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21750,10 +21186,8 @@
           <t>4974303504</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:33:41</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44400.81505787037</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21829,10 +21263,8 @@
           <t>4974616216</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:33:29</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44400.81491898148</v>
       </c>
       <c r="I293" t="n">
         <v>4</v>
@@ -21904,10 +21336,8 @@
           <t>4974286002</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:33:16</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44400.81476851852</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21982,10 +21412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:33:04</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44400.81462962963</v>
       </c>
       <c r="I295" t="n">
         <v>82</v>
@@ -22055,10 +21483,8 @@
           <t>4974427184</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:32:01</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44400.81390046296</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22134,10 +21560,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:31:58</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44400.81386574074</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22205,10 +21629,8 @@
           <t>4974417640</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:31:47</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44400.81373842592</v>
       </c>
       <c r="I298" t="n">
         <v>3</v>
@@ -22280,10 +21702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:30:53</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44400.81311342592</v>
       </c>
       <c r="I299" t="n">
         <v>6</v>
@@ -22347,10 +21767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:29:25</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44400.81209490741</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22414,10 +21832,8 @@
           <t>4974427184</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:29:25</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44400.81209490741</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22493,10 +21909,8 @@
           <t>4974228819</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:25:44</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44400.80953703704</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22568,10 +21982,8 @@
           <t>4974516418</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:25:30</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44400.809375</v>
       </c>
       <c r="I303" t="n">
         <v>4</v>
@@ -22635,10 +22047,8 @@
           <t>4974417640</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:25:28</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44400.80935185185</v>
       </c>
       <c r="I304" t="n">
         <v>4</v>
@@ -22710,10 +22120,8 @@
           <t>4974423549</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:23:39</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44400.80809027778</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22778,10 +22186,8 @@
           <t>4974417640</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:23:17</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44400.80783564815</v>
       </c>
       <c r="I306" t="n">
         <v>5</v>
@@ -22845,10 +22251,8 @@
           <t>4974532257</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:23:02</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44400.80766203703</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22916,10 +22320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:22:32</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44400.80731481482</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22983,10 +22385,8 @@
           <t>4974530523</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:22:15</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44400.80711805556</v>
       </c>
       <c r="I309" t="n">
         <v>13</v>
@@ -23059,10 +22459,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:22:08</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44400.80703703704</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -23138,10 +22536,8 @@
           <t>4974526056</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:21:59</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44400.80693287037</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23213,10 +22609,8 @@
           <t>4974525162</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:21:40</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44400.80671296296</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23284,10 +22678,8 @@
           <t>4974516418</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:20:30</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44400.80590277778</v>
       </c>
       <c r="I313" t="n">
         <v>4</v>
@@ -23363,10 +22755,8 @@
           <t>4974237330</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:20:24</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44400.80583333333</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -23430,10 +22820,8 @@
           <t>4974515887</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:20:17</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44400.80575231482</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23501,10 +22889,8 @@
           <t>4974237330</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:20:15</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44400.80572916667</v>
       </c>
       <c r="I316" t="n">
         <v>14</v>
@@ -23568,10 +22954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:20:15</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44400.80572916667</v>
       </c>
       <c r="I317" t="n">
         <v>12</v>
@@ -23647,10 +23031,8 @@
           <t>4974509075</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:20:06</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44400.805625</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23726,10 +23108,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:20:01</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44400.80556712963</v>
       </c>
       <c r="I319" t="n">
         <v>3</v>
@@ -23816,10 +23196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:19:53</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44400.80547453704</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23889,10 +23267,8 @@
           <t>4974427184</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:17:30</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44400.80381944445</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23968,10 +23344,8 @@
           <t>4974423549</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:16:34</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44400.8031712963</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24047,10 +23421,8 @@
           <t>4974486556</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:16:34</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44400.8031712963</v>
       </c>
       <c r="I323" t="n">
         <v>8</v>
@@ -24118,10 +23490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:16:32</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44400.80314814814</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24185,10 +23555,8 @@
           <t>4974482392</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:16:31</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44400.80313657408</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -24264,10 +23632,8 @@
           <t>4974479689</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:16:22</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44400.80303240741</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24343,10 +23709,8 @@
           <t>4974481159</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:15:58</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44400.80275462963</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24422,10 +23786,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:15:58</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44400.80275462963</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24493,10 +23855,8 @@
           <t>4974417640</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:15:03</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44400.80211805556</v>
       </c>
       <c r="I329" t="n">
         <v>4</v>
@@ -24572,10 +23932,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:14:50</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44400.80196759259</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24651,10 +24009,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:14:18</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44400.80159722222</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24730,10 +24086,8 @@
           <t>4974466076</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:13:47</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44400.80123842593</v>
       </c>
       <c r="I332" t="n">
         <v>9</v>
@@ -24810,10 +24164,8 @@
           <t>4974454479</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:13:06</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44400.80076388889</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24889,10 +24241,8 @@
           <t>4974228819</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:12:31</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44400.8003587963</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24964,10 +24314,8 @@
           <t>4974423549</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:12:25</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44400.80028935185</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25031,10 +24379,8 @@
           <t>4974452625</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:12:16</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44400.80018518519</v>
       </c>
       <c r="I336" t="n">
         <v>9</v>
@@ -25110,10 +24456,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:12:01</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44400.80001157407</v>
       </c>
       <c r="I337" t="n">
         <v>2</v>
@@ -25186,10 +24530,8 @@
           <t>4974417640</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:56</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44400.7999537037</v>
       </c>
       <c r="I338" t="n">
         <v>5</v>
@@ -25257,10 +24599,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:54</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44400.79993055556</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25336,10 +24676,8 @@
           <t>4974443776</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:45</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44400.79982638889</v>
       </c>
       <c r="I340" t="n">
         <v>7</v>
@@ -25415,10 +24753,8 @@
           <t>4974451293</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:41</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44400.7997800926</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25494,10 +24830,8 @@
           <t>4974442492</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:15</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44400.79947916666</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25569,10 +24903,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:07</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44400.79938657407</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25636,10 +24968,8 @@
           <t>4974441393</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:10:50</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44400.79918981482</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25703,10 +25033,8 @@
           <t>4974303504</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:10:48</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44400.79916666666</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25770,10 +25098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:10:43</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44400.79910879629</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25841,10 +25167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:10:19</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44400.79883101852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25916,10 +25240,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:09:40</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44400.79837962963</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25991,10 +25313,8 @@
           <t>4974436236</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:09:26</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44400.79821759259</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26058,10 +25378,8 @@
           <t>4974427184</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:09:12</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44400.79805555556</v>
       </c>
       <c r="I350" t="n">
         <v>4</v>
@@ -26137,10 +25455,8 @@
           <t>4974425384</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:08:32</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44400.79759259259</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26216,10 +25532,8 @@
           <t>4974423549</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:08:13</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44400.79737268519</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26295,10 +25609,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:07:30</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44400.796875</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26370,10 +25682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:07:30</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44400.796875</v>
       </c>
       <c r="I354" t="n">
         <v>15</v>
@@ -26437,10 +25747,8 @@
           <t>4974303504</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:07:25</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44400.79681712963</v>
       </c>
       <c r="I355" t="n">
         <v>2</v>
@@ -26516,10 +25824,8 @@
           <t>4974421626</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:07:23</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44400.79679398148</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26587,10 +25893,8 @@
           <t>4974303504</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:06:44</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44400.79634259259</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26666,10 +25970,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:06:30</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44400.79618055555</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26737,10 +26039,8 @@
           <t>4974185892</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:06:26</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44400.79613425926</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26816,10 +26116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:06:21</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44400.79607638889</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26883,10 +26181,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:06:05</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44400.79589120371</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26962,10 +26258,8 @@
           <t>4974402630</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:05:33</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44400.79552083334</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -27037,10 +26331,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:05:12</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44400.79527777778</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27112,10 +26404,8 @@
           <t>4974395000</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:04:36</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44400.79486111111</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27187,10 +26477,8 @@
           <t>4974174801</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:04:18</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44400.79465277777</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -27262,10 +26550,8 @@
           <t>4974383358</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:03:44</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44400.79425925926</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27333,10 +26619,8 @@
           <t>4974392599</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:03:44</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44400.79425925926</v>
       </c>
       <c r="I367" t="n">
         <v>5</v>
@@ -27412,10 +26696,8 @@
           <t>4974392324</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:03:37</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44400.79417824074</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27483,10 +26765,8 @@
           <t>4974387423</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:03:29</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44400.79408564815</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27554,10 +26834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:03:28</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44400.79407407407</v>
       </c>
       <c r="I370" t="n">
         <v>6</v>
@@ -27629,10 +26907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:02:55</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44400.79369212963</v>
       </c>
       <c r="I371" t="n">
         <v>7</v>
@@ -27708,10 +26984,8 @@
           <t>4974374799</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:02:28</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44400.79337962963</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27779,10 +27053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:02:26</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44400.79335648148</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27842,10 +27114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:01:53</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44400.79297453703</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27921,10 +27191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:00:46</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44400.79219907407</v>
       </c>
       <c r="I375" t="n">
         <v>4</v>
@@ -27992,10 +27260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:00:02</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44400.79168981482</v>
       </c>
       <c r="I376" t="n">
         <v>4</v>
@@ -28063,10 +27329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:00:01</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44400.79167824074</v>
       </c>
       <c r="I377" t="n">
         <v>8</v>
@@ -28134,10 +27398,8 @@
           <t>4974228819</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:59:35</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44400.79137731482</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28205,10 +27467,8 @@
           <t>4974356525</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:59:17</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44400.79116898148</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -28280,10 +27540,8 @@
           <t>4974350918</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:58:22</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44400.79053240741</v>
       </c>
       <c r="I380" t="n">
         <v>15</v>
@@ -28355,10 +27613,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:57:55</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44400.79021990741</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28435,10 +27691,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:59</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44400.78887731482</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28515,10 +27769,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:54</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44400.78881944445</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28595,10 +27847,8 @@
           <t>4974327804</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:54</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44400.78881944445</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28662,10 +27912,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:45</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44400.78871527778</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28742,10 +27990,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:20</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44400.78842592592</v>
       </c>
       <c r="I386" t="n">
         <v>12</v>
@@ -28823,10 +28069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:54:48</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44400.78805555555</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28902,10 +28146,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:54:04</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44400.7875462963</v>
       </c>
       <c r="I388" t="n">
         <v>2</v>
@@ -28977,10 +28219,8 @@
           <t>4974312394</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:53:49</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44400.78737268518</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29056,10 +28296,8 @@
           <t>4974315152</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:53:38</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44400.78724537037</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29123,10 +28361,8 @@
           <t>4974303504</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:53:31</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44400.78716435185</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29190,10 +28426,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:53:26</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44400.78710648148</v>
       </c>
       <c r="I392" t="n">
         <v>24</v>
@@ -29269,10 +28503,8 @@
           <t>4974303504</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:52:54</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44400.78673611111</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29348,10 +28580,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:52:51</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44400.78670138889</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29415,10 +28645,8 @@
           <t>4974302607</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:52:30</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44400.78645833334</v>
       </c>
       <c r="I395" t="n">
         <v>2</v>
@@ -29482,10 +28710,8 @@
           <t>4974284403</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:50:38</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44400.78516203703</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29549,10 +28775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:50:35</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44400.78512731481</v>
       </c>
       <c r="I397" t="n">
         <v>14</v>
@@ -29632,10 +28856,8 @@
           <t>4974282799</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:50:00</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44400.78472222222</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29711,10 +28933,8 @@
           <t>4974286002</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:49:37</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44400.78445601852</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29790,10 +29010,8 @@
           <t>4974285735</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:49:29</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44400.78436342593</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29861,10 +29079,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:49:27</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44400.78434027778</v>
       </c>
       <c r="I401" t="n">
         <v>14</v>
@@ -29932,10 +29148,8 @@
           <t>4974185892</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:49:15</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44400.78420138889</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29999,10 +29213,8 @@
           <t>4974185892</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:48:57</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44400.78399305556</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30066,10 +29278,8 @@
           <t>4974274255</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:48:51</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44400.78392361111</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30137,10 +29347,8 @@
           <t>4974185892</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:48:19</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44400.78355324074</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30216,10 +29424,8 @@
           <t>4974275327</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:48:18</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44400.78354166666</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30298,10 +29504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:47:46</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44400.78317129629</v>
       </c>
       <c r="I407" t="n">
         <v>41</v>
@@ -30369,10 +29573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:47:38</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44400.7830787037</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30436,10 +29638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:47:30</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44400.78298611111</v>
       </c>
       <c r="I409" t="n">
         <v>4</v>
@@ -30507,10 +29707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:46:54</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44400.78256944445</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30578,10 +29776,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:46:53</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44400.78255787037</v>
       </c>
       <c r="I411" t="n">
         <v>14</v>
@@ -30649,10 +29845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:46:47</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44400.78248842592</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30720,10 +29914,8 @@
           <t>4974252705</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:46:01</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44400.78195601852</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30799,10 +29991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:45:17</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44400.78144675926</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30878,10 +30068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:45:17</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44400.78144675926</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30945,10 +30133,8 @@
           <t>4974244390</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:46</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44400.78108796296</v>
       </c>
       <c r="I416" t="n">
         <v>17</v>
@@ -31025,10 +30211,8 @@
           <t>4974234611</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:39</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44400.78100694445</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -31100,10 +30284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:36</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44400.78097222222</v>
       </c>
       <c r="I418" t="n">
         <v>2</v>
@@ -31167,10 +30349,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:03</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44400.78059027778</v>
       </c>
       <c r="I419" t="n">
         <v>10</v>
@@ -31242,10 +30422,8 @@
           <t>4974237330</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:43:30</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44400.78020833333</v>
       </c>
       <c r="I420" t="n">
         <v>21</v>
@@ -31322,10 +30500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:43:13</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44400.78001157408</v>
       </c>
       <c r="I421" t="n">
         <v>10</v>
@@ -31393,10 +30569,8 @@
           <t>4974228819</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:32</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44400.77953703704</v>
       </c>
       <c r="I422" t="n">
         <v>52</v>
@@ -31460,10 +30634,8 @@
           <t>4974228822</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:32</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44400.77953703704</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31539,10 +30711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:24</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44400.77944444444</v>
       </c>
       <c r="I424" t="n">
         <v>3</v>
@@ -31614,10 +30784,8 @@
           <t>4974228296</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:20</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44400.77939814814</v>
       </c>
       <c r="I425" t="n">
         <v>16</v>
@@ -31681,10 +30849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:17</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44400.77936342593</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31748,10 +30914,8 @@
           <t>4974223603</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:06</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44400.77923611111</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31819,10 +30983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:55</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44400.7791087963</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -31886,10 +31048,8 @@
           <t>4974227091</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:50</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44400.77905092593</v>
       </c>
       <c r="I429" t="n">
         <v>8</v>
@@ -31961,10 +31121,8 @@
           <t>4974218389</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:49</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44400.77903935185</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32028,10 +31186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:34</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44400.77886574074</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -32103,10 +31259,8 @@
           <t>4974221337</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:13</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44400.77862268518</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32174,10 +31328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:06</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44400.77854166667</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32249,10 +31401,8 @@
           <t>4974220539</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:40:54</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44400.77840277777</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32328,10 +31478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:40:14</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44400.77793981481</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32395,10 +31543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:40:05</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44400.77783564815</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32462,10 +31608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:57</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44400.77774305556</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32538,10 +31682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:52</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44400.77768518519</v>
       </c>
       <c r="I438" t="n">
         <v>4</v>
@@ -32604,10 +31746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:42</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44400.77756944444</v>
       </c>
       <c r="I439" t="n">
         <v>3</v>
@@ -32667,10 +31807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:33</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44400.77746527778</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32737,10 +31875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:25</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44400.77737268519</v>
       </c>
       <c r="I441" t="n">
         <v>3</v>
@@ -32800,10 +31936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:21</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44400.77732638889</v>
       </c>
       <c r="I442" t="n">
         <v>2</v>
@@ -32863,10 +31997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:52</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44400.77699074074</v>
       </c>
       <c r="I443" t="n">
         <v>2</v>
@@ -32934,10 +32066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:43</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44400.77688657407</v>
       </c>
       <c r="I444" t="n">
         <v>176</v>
@@ -33001,10 +32131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:26</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44400.77668981482</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -33076,10 +32204,8 @@
           <t>4974197712</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:05</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44400.77644675926</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33147,10 +32273,8 @@
           <t>4974197715</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:05</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44400.77644675926</v>
       </c>
       <c r="I447" t="n">
         <v>34</v>
@@ -33224,10 +32348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:04</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44400.77643518519</v>
       </c>
       <c r="I448" t="n">
         <v>5</v>
@@ -33305,10 +32427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:46</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44400.77622685185</v>
       </c>
       <c r="I449" t="n">
         <v>5</v>
@@ -33376,10 +32496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:46</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44400.77622685185</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33447,10 +32565,8 @@
           <t>4974196245</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:28</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44400.77601851852</v>
       </c>
       <c r="I451" t="n">
         <v>2</v>
@@ -33536,10 +32652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:19</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44400.77591435185</v>
       </c>
       <c r="I452" t="n">
         <v>10</v>
@@ -33603,10 +32717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:00</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44400.77569444444</v>
       </c>
       <c r="I453" t="n">
         <v>6</v>
@@ -33670,10 +32782,8 @@
           <t>4974174801</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:58</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44400.77567129629</v>
       </c>
       <c r="I454" t="n">
         <v>7</v>
@@ -33745,10 +32855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:53</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44400.77561342593</v>
       </c>
       <c r="I455" t="n">
         <v>2</v>
@@ -33816,10 +32924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:32</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44400.77537037037</v>
       </c>
       <c r="I456" t="n">
         <v>91</v>
@@ -33895,10 +33001,8 @@
           <t>4974185892</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:17</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44400.77519675926</v>
       </c>
       <c r="I457" t="n">
         <v>17</v>
@@ -33970,10 +33074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:17</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44400.77519675926</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34086,10 +33188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:05</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44400.77505787037</v>
       </c>
       <c r="I459" t="n">
         <v>15</v>
@@ -34155,10 +33255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:59</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44400.77498842592</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34237,10 +33335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:57</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44400.77496527778</v>
       </c>
       <c r="I461" t="n">
         <v>8</v>
@@ -34316,10 +33412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:53</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44400.77491898148</v>
       </c>
       <c r="I462" t="n">
         <v>4</v>
@@ -34387,10 +33481,8 @@
           <t>4974174801</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:47</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44400.77484953704</v>
       </c>
       <c r="I463" t="n">
         <v>2</v>
@@ -34466,10 +33558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:45</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44400.77413194445</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34533,10 +33623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:39</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44400.7740625</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34612,10 +33700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:34</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44400.77400462963</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34683,10 +33769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:14</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44400.77377314815</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34762,10 +33846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:11</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44400.77373842592</v>
       </c>
       <c r="I468" t="n">
         <v>5</v>
@@ -34837,10 +33919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:33:59</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44400.77359953704</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34904,10 +33984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:33:34</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44400.77331018518</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34979,10 +34057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:24</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44400.77180555555</v>
       </c>
       <c r="I471" t="n">
         <v>17</v>
@@ -35050,10 +34126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:17</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44400.77172453704</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35121,10 +34195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:17</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44400.77172453704</v>
       </c>
       <c r="I473" t="n">
         <v>875</v>
@@ -35192,10 +34264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:14</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44400.77168981481</v>
       </c>
       <c r="I474" t="n">
         <v>377</v>
@@ -35263,10 +34333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:07</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44400.7716087963</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35342,10 +34410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:03</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44400.7715625</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35421,10 +34487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:59</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44400.77151620371</v>
       </c>
       <c r="I477" t="n">
         <v>6</v>
@@ -35496,10 +34560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:52</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44400.77143518518</v>
       </c>
       <c r="I478" t="n">
         <v>125</v>
@@ -35571,10 +34633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:51</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44400.77142361111</v>
       </c>
       <c r="I479" t="n">
         <v>217</v>
@@ -35650,10 +34710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:38</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44400.77127314815</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35721,10 +34779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:35</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44400.77123842593</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35796,10 +34852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:31</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44400.77119212963</v>
       </c>
       <c r="I482" t="n">
         <v>29</v>
@@ -35871,10 +34925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:23</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44400.77109953704</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
